--- a/AAII_Financials/Yearly/PCAR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PCAR_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>PCAR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,155 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>25599700</v>
+      </c>
+      <c r="E8" s="3">
         <v>23495700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>19456400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>17032900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>19115100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>18997000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>17123800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>17050500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>16355200</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>20555100</v>
+      </c>
+      <c r="E9" s="3">
         <v>18925300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>15593400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>13517300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>15292800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>15486900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>13902000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>27975300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>13523100</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5044600</v>
+      </c>
+      <c r="E10" s="3">
         <v>4570400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3863000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3515600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3822300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3510100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3221800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-10924800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2832100</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -814,38 +826,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>326600</v>
+      </c>
+      <c r="E12" s="3">
         <v>306100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>264700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>247200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>239800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>215600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>251400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>279300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>288200</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -873,9 +889,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -885,11 +904,11 @@
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="3">
         <v>833000</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>10</v>
@@ -903,39 +922,45 @@
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>798200</v>
+      </c>
+      <c r="E15" s="3">
         <v>728000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>727500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>635200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>583700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>588500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>571700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>517400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>346600</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -945,68 +970,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>22393800</v>
+      </c>
+      <c r="E17" s="3">
         <v>20618900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>17162400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>15789500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>16672500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>16862600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>15297500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>15296900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14875800</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3205900</v>
+      </c>
+      <c r="E18" s="3">
         <v>2876800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2294000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1243400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2442600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2134400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1826300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1753600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1479400</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1019,158 +1051,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>133800</v>
+      </c>
+      <c r="E20" s="3">
         <v>135200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-20100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>42500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>20100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>12700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>35700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>33100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>27500</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>4417000</v>
+      </c>
+      <c r="E21" s="3">
         <v>4066100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3381400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2279000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3369800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3064800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2672700</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2180700</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>240600</v>
+      </c>
+      <c r="E22" s="3">
         <v>201800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>100600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>155500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>125600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>129500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>167000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>157800</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3099100</v>
+      </c>
+      <c r="E23" s="3">
         <v>2810200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2173300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1130400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2337100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2017600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1695000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1628900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1506900</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>711300</v>
+      </c>
+      <c r="E24" s="3">
         <v>615100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>671500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>608700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>733100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>658800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>523700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>517300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>464600</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1198,69 +1246,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2387800</v>
+      </c>
+      <c r="E26" s="3">
         <v>2195100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1501800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>521700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1604000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1358800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1171300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1111600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1042300</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2387800</v>
+      </c>
+      <c r="E27" s="3">
         <v>2195100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1501800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>521700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1604000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1358800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1171300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1111600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1042300</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1288,20 +1345,23 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="3">
         <v>173400</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>10</v>
@@ -1318,9 +1378,12 @@
       <c r="K29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1348,9 +1411,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1378,69 +1444,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-133800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-135200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>20100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-42500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-20100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-12700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-35700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-33100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-27500</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2387800</v>
+      </c>
+      <c r="E33" s="3">
         <v>2195100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1675200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>521700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1604000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1358800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1171300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1111600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1042300</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1468,74 +1543,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2387800</v>
+      </c>
+      <c r="E35" s="3">
         <v>2195100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1675200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>521700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1604000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1358800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1171300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1111600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1042300</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1548,8 +1632,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1562,188 +1647,207 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4175100</v>
+      </c>
+      <c r="E41" s="3">
         <v>3435900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2364700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1915700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2016400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1737600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1750100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1272400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2106700</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1162100</v>
+      </c>
+      <c r="E42" s="3">
         <v>1020400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1367100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1140900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1448100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1272000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1267500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1192700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>910100</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>13392100</v>
+      </c>
+      <c r="E43" s="3">
         <v>12155200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>10825000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>9699600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>10182600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>10089700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>9831700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>9200400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8237500</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1153200</v>
+      </c>
+      <c r="E44" s="3">
         <v>1184700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>928400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>727800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>796500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>925700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>813600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>782400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>710400</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>388000</v>
+      </c>
+      <c r="E45" s="3">
         <v>364700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>404400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>225600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>245700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>290500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>308100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>331700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>249100</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>20270500</v>
+      </c>
+      <c r="E46" s="3">
         <v>18160900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>15889600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>13709600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>14689300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>14315500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>13971000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>12779600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>12213800</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1771,39 +1875,45 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6569900</v>
+      </c>
+      <c r="E48" s="3">
         <v>6122500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6606400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5897800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5549400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5553800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5841700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5201600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4363100</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1831,9 +1941,12 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1861,9 +1974,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1891,39 +2007,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1520700</v>
+      </c>
+      <c r="E52" s="3">
         <v>1199000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>944200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1031500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>871100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>749500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>912800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>646600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>595800</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1951,39 +2073,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>28361100</v>
+      </c>
+      <c r="E54" s="3">
         <v>25482400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>23440200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>20638900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>21109800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>20618800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>20725500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>18627800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17172700</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1996,8 +2124,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2010,43 +2139,47 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1720300</v>
+      </c>
+      <c r="E57" s="3">
         <v>1823900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1620900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1331400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1286100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1552100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1366700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1147500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1462300</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>10</v>
+      <c r="D58" s="3">
+        <v>700</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>10</v>
@@ -2060,138 +2193,153 @@
       <c r="H58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J58" s="3">
         <v>150000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3562700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3909900</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2898700</v>
+      </c>
+      <c r="E59" s="3">
         <v>2422100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1836900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1308100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1635100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1484000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1498800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1330300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1528800</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4619700</v>
+      </c>
+      <c r="E60" s="3">
         <v>4246000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3457800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2639500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2921200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3036100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3015500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6040500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6901000</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>11223400</v>
+      </c>
+      <c r="E61" s="3">
         <v>9950500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>8879400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8475200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8591500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8230600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>8274200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4317400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2745500</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2811900</v>
+      </c>
+      <c r="E62" s="3">
         <v>2693000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3052500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2746600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2656700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2598900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2801500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2423000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2161800</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2219,9 +2367,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2249,9 +2400,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2279,39 +2433,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>18655000</v>
+      </c>
+      <c r="E66" s="3">
         <v>16889500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>15389700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>13861300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>14169400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>13865600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>14091200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12780900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11808300</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2324,8 +2484,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2353,9 +2514,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2383,9 +2547,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2413,9 +2580,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2443,39 +2613,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>10398500</v>
+      </c>
+      <c r="E72" s="3">
         <v>9275400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>8369100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>7484900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>7536800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>6863800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>6165100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>5596400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5174500</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2503,9 +2679,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2533,9 +2712,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2563,39 +2745,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9706100</v>
+      </c>
+      <c r="E76" s="3">
         <v>8592900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8050500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6777600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6940400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6753200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6634300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5846900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5364400</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2623,74 +2811,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2387800</v>
+      </c>
+      <c r="E81" s="3">
         <v>2195100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1675200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>521700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1604000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1358800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1171300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1111600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1042300</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2703,38 +2900,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1077300</v>
+      </c>
+      <c r="E83" s="3">
         <v>1054100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1107500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>993100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>907100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>917700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>810700</v>
       </c>
-      <c r="J83" s="3" t="s">
+      <c r="K83" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>673800</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2762,9 +2963,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2792,9 +2996,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2822,9 +3029,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2852,9 +3062,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2882,39 +3095,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2860300</v>
+      </c>
+      <c r="E89" s="3">
         <v>2992300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2715800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2300800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2556000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2123600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2375700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1519000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1592600</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2927,38 +3146,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1970800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1952300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1846600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1964900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1725200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1537300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1872800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1803400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1647300</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2986,9 +3209,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3016,39 +3242,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2207400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1930700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1964600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1564300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1974900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1531900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2151000</v>
       </c>
-      <c r="J94" s="3" t="s">
+      <c r="K94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2419000</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3061,38 +3293,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1138600</v>
+      </c>
+      <c r="E96" s="3">
         <v>-804300</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-558300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-829300</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-680500</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-623800</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-283100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-809500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-217400</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3120,9 +3356,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3150,9 +3389,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3180,97 +3422,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>83400</v>
+      </c>
+      <c r="E100" s="3">
         <v>71100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-393800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-823500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-196500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-520500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>273800</v>
       </c>
-      <c r="J100" s="3" t="s">
+      <c r="K100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>946100</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-61500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>91600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-13700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-105800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-83700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-20800</v>
       </c>
-      <c r="J101" s="3" t="s">
+      <c r="K101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-53800</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>739200</v>
+      </c>
+      <c r="E102" s="3">
         <v>1071200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>449000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>278800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-12500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>477700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-834300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>65900</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/PCAR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PCAR_YR_FIN.xlsx
@@ -977,7 +977,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>22393800</v>
+        <v>22393700</v>
       </c>
       <c r="E17" s="3">
         <v>20618900</v>
@@ -1010,7 +1010,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3205900</v>
+        <v>3206000</v>
       </c>
       <c r="E18" s="3">
         <v>2876800</v>
@@ -1091,7 +1091,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4417000</v>
+        <v>4417100</v>
       </c>
       <c r="E21" s="3">
         <v>4066100</v>
@@ -1157,7 +1157,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3099100</v>
+        <v>3099200</v>
       </c>
       <c r="E23" s="3">
         <v>2810200</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2387800</v>
+        <v>2387900</v>
       </c>
       <c r="E26" s="3">
         <v>2195100</v>
@@ -1289,7 +1289,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2387800</v>
+        <v>2387900</v>
       </c>
       <c r="E27" s="3">
         <v>2195100</v>
@@ -1487,7 +1487,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2387800</v>
+        <v>2387900</v>
       </c>
       <c r="E33" s="3">
         <v>2195100</v>
@@ -1553,7 +1553,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2387800</v>
+        <v>2387900</v>
       </c>
       <c r="E35" s="3">
         <v>2195100</v>
@@ -2146,7 +2146,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1720300</v>
+        <v>1720500</v>
       </c>
       <c r="E57" s="3">
         <v>1823900</v>
@@ -2179,7 +2179,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>10</v>
@@ -2278,7 +2278,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11223400</v>
+        <v>11223200</v>
       </c>
       <c r="E61" s="3">
         <v>9950500</v>
@@ -2311,7 +2311,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2811900</v>
+        <v>2812100</v>
       </c>
       <c r="E62" s="3">
         <v>2693000</v>
@@ -2859,7 +2859,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2387800</v>
+        <v>2387900</v>
       </c>
       <c r="E81" s="3">
         <v>2195100</v>

--- a/AAII_Financials/Yearly/PCAR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PCAR_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>PCAR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,167 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>18728500</v>
+      </c>
+      <c r="E8" s="3">
         <v>25599700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>23495700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>19456400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>17032900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>19115100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>18997000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>17123800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>17050500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>16355200</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>15076400</v>
+      </c>
+      <c r="E9" s="3">
         <v>20555100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>18925300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>15593400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>13517300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>15292800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>15486900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>13902000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>27975300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>13523100</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3652100</v>
+      </c>
+      <c r="E10" s="3">
         <v>5044600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4570400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3863000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3515600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3822300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3510100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3221800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-10924800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2832100</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -827,41 +839,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>273900</v>
+      </c>
+      <c r="E12" s="3">
         <v>326600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>306100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>264700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>247200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>239800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>215600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>251400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>279300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>288200</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,9 +908,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -907,11 +926,11 @@
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="3">
         <v>833000</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
@@ -925,42 +944,48 @@
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1008000</v>
+      </c>
+      <c r="E15" s="3">
         <v>798200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>728000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>727500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>635200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>583700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>588500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>571700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>517400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>346600</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -971,74 +996,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>16968500</v>
+      </c>
+      <c r="E17" s="3">
         <v>22393700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>20618900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>17162400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>15789500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>16672500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>16862600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>15297500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15296900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>14875800</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1760000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3206000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2876800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2294000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1243400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2442600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2134400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1826300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1753600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1479400</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1052,173 +1084,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>90000</v>
+      </c>
+      <c r="E20" s="3">
         <v>133800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>135200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-20100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>42500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>20100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>12700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>35700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>33100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>27500</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2899000</v>
+      </c>
+      <c r="E21" s="3">
         <v>4417100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4066100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3381400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2279000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3369800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3064800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2672700</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2180700</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>192100</v>
+      </c>
+      <c r="E22" s="3">
         <v>240600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>201800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>100600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>155500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>125600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>129500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>167000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>157800</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1657900</v>
+      </c>
+      <c r="E23" s="3">
         <v>3099200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2810200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2173300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1130400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2337100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2017600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1695000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1628900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1506900</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>359500</v>
+      </c>
+      <c r="E24" s="3">
         <v>711300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>615100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>671500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>608700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>733100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>658800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>523700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>517300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>464600</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1249,75 +1297,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1298400</v>
+      </c>
+      <c r="E26" s="3">
         <v>2387900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2195100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1501800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>521700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1604000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1358800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1171300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1111600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1042300</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1298400</v>
+      </c>
+      <c r="E27" s="3">
         <v>2387900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2195100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1501800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>521700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1604000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1358800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1171300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1111600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1042300</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1348,9 +1405,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1360,11 +1420,11 @@
       <c r="E29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="3">
         <v>173400</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>10</v>
@@ -1381,9 +1441,12 @@
       <c r="L29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1414,9 +1477,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1447,75 +1513,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-90000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-133800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-135200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>20100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-42500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-20100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-12700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-35700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-33100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-27500</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1298400</v>
+      </c>
+      <c r="E33" s="3">
         <v>2387900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2195100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1675200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>521700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1604000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1358800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1171300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1111600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1042300</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1546,80 +1621,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1298400</v>
+      </c>
+      <c r="E35" s="3">
         <v>2387900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2195100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1675200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>521700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1604000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1358800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1171300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1111600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1042300</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1633,8 +1717,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1648,206 +1733,225 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3539600</v>
+      </c>
+      <c r="E41" s="3">
         <v>4175100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3435900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2364700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1915700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2016400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1737600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1750100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1272400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2106700</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1429000</v>
+      </c>
+      <c r="E42" s="3">
         <v>1162100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1020400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1367100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1140900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1448100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1272000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1267500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1192700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>910100</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>13018200</v>
+      </c>
+      <c r="E43" s="3">
         <v>13392100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>12155200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>10825000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>9699600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>10182600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>10089700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>9831700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>9200400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>8237500</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1221900</v>
+      </c>
+      <c r="E44" s="3">
         <v>1153200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1184700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>928400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>727800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>796500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>925700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>813600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>782400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>710400</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>515600</v>
+      </c>
+      <c r="E45" s="3">
         <v>388000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>364700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>404400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>225600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>245700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>290500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>308100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>331700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>249100</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>19724300</v>
+      </c>
+      <c r="E46" s="3">
         <v>20270500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>18160900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>15889600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>13709600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>14689300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>14315500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>13971000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>12779600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>12213800</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1878,42 +1982,48 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6896000</v>
+      </c>
+      <c r="E48" s="3">
         <v>6569900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6122500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6606400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5897800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5549400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5553800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5841700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5201600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4363100</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1944,9 +2054,12 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1977,9 +2090,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2010,42 +2126,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1639700</v>
+      </c>
+      <c r="E52" s="3">
         <v>1520700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1199000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>944200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1031500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>871100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>749500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>912800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>646600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>595800</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2076,42 +2198,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>28260000</v>
+      </c>
+      <c r="E54" s="3">
         <v>28361100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>25482400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>23440200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>20638900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>21109800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>20618800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>20725500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>18627800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17172700</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2125,8 +2253,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2140,49 +2269,53 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2074500</v>
+      </c>
+      <c r="E57" s="3">
         <v>1720500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1823900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1620900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1331400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1286100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1552100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1366700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1147500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1462300</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>500</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>10</v>
+      <c r="E58" s="3">
+        <v>500</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>10</v>
@@ -2196,150 +2329,165 @@
       <c r="I58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K58" s="3">
         <v>150000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3562700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3909900</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2142500</v>
+      </c>
+      <c r="E59" s="3">
         <v>2898700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2422100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1836900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1308100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1635100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1484000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1498800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1330300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1528800</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4217500</v>
+      </c>
+      <c r="E60" s="3">
         <v>4619700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4246000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3457800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2639500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2921200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3036100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3015500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6040500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6901000</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>10853800</v>
+      </c>
+      <c r="E61" s="3">
         <v>11223200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>9950500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8879400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8475200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8591500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>8230600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>8274200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4317400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2745500</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2798700</v>
+      </c>
+      <c r="E62" s="3">
         <v>2812100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2693000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3052500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2746600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2656700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2598900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2801500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2423000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2161800</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2370,9 +2518,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2403,9 +2554,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2436,42 +2590,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>17870000</v>
+      </c>
+      <c r="E66" s="3">
         <v>18655000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>16889500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>15389700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>13861300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14169400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>13865600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>14091200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12780900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11808300</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2485,8 +2645,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2517,9 +2678,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2550,9 +2714,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2583,9 +2750,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2616,42 +2786,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>11005200</v>
+      </c>
+      <c r="E72" s="3">
         <v>10398500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>9275400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>8369100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>7484900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>7536800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>6863800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>6165100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5596400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5174500</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2682,9 +2858,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2715,9 +2894,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2748,42 +2930,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10390000</v>
+      </c>
+      <c r="E76" s="3">
         <v>9706100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8592900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8050500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6777600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6940400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6753200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6634300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5846900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5364400</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2814,80 +3002,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1298400</v>
+      </c>
+      <c r="E81" s="3">
         <v>2387900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2195100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1675200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>521700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1604000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1358800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1171300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1111600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1042300</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2901,41 +3098,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1049000</v>
+      </c>
+      <c r="E83" s="3">
         <v>1077300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1054100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1107500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>993100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>907100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>917700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>810700</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="L83" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>673800</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2966,9 +3167,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2999,9 +3203,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3032,9 +3239,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3065,9 +3275,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3098,42 +3311,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2987200</v>
+      </c>
+      <c r="E89" s="3">
         <v>2860300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2992300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2715800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2300800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2556000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2123600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2375700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1519000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1592600</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3147,41 +3366,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1638400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1970800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1952300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1846600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1964900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1725200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1537300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1872800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1803400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1647300</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3212,9 +3435,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3245,42 +3471,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1875800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2207400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1930700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1964600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1564300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1974900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1531900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2151000</v>
       </c>
-      <c r="K94" s="3" t="s">
+      <c r="L94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2419000</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3294,41 +3526,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1239800</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1138600</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-804300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-558300</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-829300</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-680500</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-623800</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-283100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-809500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-217400</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3359,9 +3595,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3392,9 +3631,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3425,106 +3667,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1808500</v>
+      </c>
+      <c r="E100" s="3">
         <v>83400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>71100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-393800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-823500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-196500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-520500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>273800</v>
       </c>
-      <c r="K100" s="3" t="s">
+      <c r="L100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>946100</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>61600</v>
+      </c>
+      <c r="E101" s="3">
         <v>2900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-61500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>91600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-13700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-105800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-83700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-20800</v>
       </c>
-      <c r="K101" s="3" t="s">
+      <c r="L101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-53800</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-635500</v>
+      </c>
+      <c r="E102" s="3">
         <v>739200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1071200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>449000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>278800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-12500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>477700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-834300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>65900</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/PCAR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PCAR_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>PCAR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,167 +665,179 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>23522300</v>
+      </c>
+      <c r="E8" s="3">
         <v>18728500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>25599700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>23495700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>19456400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>17032900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>19115100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>18997000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>17123800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>17050500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>16355200</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>19110100</v>
+      </c>
+      <c r="E9" s="3">
         <v>15076400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>20555100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>18925300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>15593400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>13517300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>15292800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>15486900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>13902000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>27975300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>13523100</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>4412200</v>
+      </c>
+      <c r="E10" s="3">
         <v>3652100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5044600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4570400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3863000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3515600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3822300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3510100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3221800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-10924800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2832100</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,44 +852,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>324100</v>
+      </c>
+      <c r="E12" s="3">
         <v>273900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>326600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>306100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>264700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>247200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>239800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>215600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>251400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>279300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>288200</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -911,9 +927,12 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,11 +948,11 @@
       <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="3">
         <v>833000</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
@@ -947,45 +966,51 @@
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>969400</v>
+      </c>
+      <c r="E15" s="3">
         <v>1008000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>798200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>728000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>727500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>635200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>583700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>588500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>571700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>517400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>346600</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -997,80 +1022,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>21080900</v>
+      </c>
+      <c r="E17" s="3">
         <v>16968500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>22393700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>20618900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>17162400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>15789500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>16672500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>16862600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15297500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>15296900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>14875800</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2441400</v>
+      </c>
+      <c r="E18" s="3">
         <v>1760000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3206000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2876800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2294000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1243400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2442600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2134400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1826300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1753600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1479400</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1085,188 +1117,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>88100</v>
+      </c>
+      <c r="E20" s="3">
         <v>90000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>133800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>135200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-20100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>42500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>20100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>12700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>35700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>33100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>27500</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3432800</v>
+      </c>
+      <c r="E21" s="3">
         <v>2899000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4417100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4066100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3381400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2279000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3369800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3064800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2672700</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2180700</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>150900</v>
+      </c>
+      <c r="E22" s="3">
         <v>192100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>240600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>201800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>100600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>155500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>125600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>129500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>167000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>157800</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2378600</v>
+      </c>
+      <c r="E23" s="3">
         <v>1657900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3099200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2810200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2173300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1130400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2337100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2017600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1695000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1628900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1506900</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>526500</v>
+      </c>
+      <c r="E24" s="3">
         <v>359500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>711300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>615100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>671500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>608700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>733100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>658800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>523700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>517300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>464600</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1300,81 +1348,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1852100</v>
+      </c>
+      <c r="E26" s="3">
         <v>1298400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2387900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2195100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1501800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>521700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1604000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1358800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1171300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1111600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1042300</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1852100</v>
+      </c>
+      <c r="E27" s="3">
         <v>1298400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2387900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2195100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1501800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>521700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1604000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1358800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1171300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1111600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1042300</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1408,9 +1465,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1423,11 +1483,11 @@
       <c r="F29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="3">
         <v>173400</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>10</v>
@@ -1444,9 +1504,12 @@
       <c r="M29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1480,9 +1543,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1516,81 +1582,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-88100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-90000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-133800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-135200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>20100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-42500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-20100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-12700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-35700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-33100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-27500</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1852100</v>
+      </c>
+      <c r="E33" s="3">
         <v>1298400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2387900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2195100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1675200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>521700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1604000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1358800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1171300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1111600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1042300</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1624,86 +1699,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1852100</v>
+      </c>
+      <c r="E35" s="3">
         <v>1298400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2387900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2195100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1675200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>521700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1604000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1358800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1171300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1111600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1042300</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1718,8 +1802,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1734,224 +1819,243 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3428300</v>
+      </c>
+      <c r="E41" s="3">
         <v>3539600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4175100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3435900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2364700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1915700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2016400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1737600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1750100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1272400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2106700</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1559400</v>
+      </c>
+      <c r="E42" s="3">
         <v>1429000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1162100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1020400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1367100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1140900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1448100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1272000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1267500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1192700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>910100</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>13495900</v>
+      </c>
+      <c r="E43" s="3">
         <v>13018200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>13392100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>12155200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>10825000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>9699600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>10182600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>10089700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>9831700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>9200400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8237500</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1768300</v>
+      </c>
+      <c r="E44" s="3">
         <v>1221900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1153200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1184700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>928400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>727800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>796500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>925700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>813600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>782400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>710400</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>732900</v>
+      </c>
+      <c r="E45" s="3">
         <v>515600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>388000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>364700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>404400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>225600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>245700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>290500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>308100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>331700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>249100</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>20984800</v>
+      </c>
+      <c r="E46" s="3">
         <v>19724300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>20270500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>18160900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>15889600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>13709600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>14689300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>14315500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>13971000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>12779600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>12213800</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1985,45 +2089,51 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6623700</v>
+      </c>
+      <c r="E48" s="3">
         <v>6896000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6569900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6122500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6606400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5897800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5549400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5553800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5841700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5201600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4363100</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2057,9 +2167,12 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2093,9 +2206,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2129,45 +2245,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1693200</v>
+      </c>
+      <c r="E52" s="3">
         <v>1639700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1520700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1199000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>944200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1031500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>871100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>749500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>912800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>646600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>595800</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2201,45 +2323,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>29301700</v>
+      </c>
+      <c r="E54" s="3">
         <v>28260000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>28361100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>25482400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>23440200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>20638900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>21109800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>20618800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>20725500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>18627800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17172700</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2254,8 +2382,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2270,55 +2399,59 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2454100</v>
+      </c>
+      <c r="E57" s="3">
         <v>2074500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1720500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1823900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1620900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1331400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1286100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1552100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1366700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1147500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1462300</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E58" s="3">
         <v>500</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>10</v>
+      <c r="F58" s="3">
+        <v>500</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>10</v>
@@ -2332,162 +2465,177 @@
       <c r="J58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L58" s="3">
         <v>150000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3562700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3909900</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2622000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2142500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2898700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2422100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1836900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1308100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1635100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1484000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1498800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1330300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1528800</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5076500</v>
+      </c>
+      <c r="E60" s="3">
         <v>4217500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4619700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4246000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3457800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2639500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2921200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3036100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3015500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6040500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6901000</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>10432300</v>
+      </c>
+      <c r="E61" s="3">
         <v>10853800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>11223200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>9950500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8879400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8475200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>8591500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>8230600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8274200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4317400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2745500</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2355500</v>
+      </c>
+      <c r="E62" s="3">
         <v>2798700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2812100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2693000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3052500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2746600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2656700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2598900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2801500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2423000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2161800</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2521,9 +2669,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2557,9 +2708,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2593,45 +2747,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>17864300</v>
+      </c>
+      <c r="E66" s="3">
         <v>17870000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>18655000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>16889500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>15389700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>13861300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>14169400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>13865600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14091200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12780900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11808300</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2646,8 +2806,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2681,9 +2842,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2717,9 +2881,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2753,9 +2920,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2789,45 +2959,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>11869200</v>
+      </c>
+      <c r="E72" s="3">
         <v>11005200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>10398500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>9275400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>8369100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>7484900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>7536800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>6863800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6165100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5596400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5174500</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2861,9 +3037,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2897,9 +3076,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2933,45 +3115,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>11437400</v>
+      </c>
+      <c r="E76" s="3">
         <v>10390000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9706100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8592900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8050500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6777600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6940400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6753200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6634300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5846900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5364400</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3005,86 +3193,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1852100</v>
+      </c>
+      <c r="E81" s="3">
         <v>1298400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2387900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2195100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1675200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>521700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1604000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1358800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1171300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1111600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1042300</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3099,44 +3296,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>903300</v>
+      </c>
+      <c r="E83" s="3">
         <v>1049000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1077300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1054100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1107500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>993100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>907100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>917700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>810700</v>
       </c>
-      <c r="L83" s="3" t="s">
+      <c r="M83" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>673800</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3170,9 +3371,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3206,9 +3410,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3242,9 +3449,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3278,9 +3488,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3314,45 +3527,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2186700</v>
+      </c>
+      <c r="E89" s="3">
         <v>2987200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2860300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2992300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2715800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2300800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2556000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2123600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2375700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1519000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1592600</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3367,44 +3586,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1632800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1638400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1970800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1952300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1846600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1964900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1725200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1537300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1872800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1803400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1647300</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3438,9 +3661,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3474,45 +3700,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1362700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1875800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2207400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1930700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1964600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1564300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1974900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1531900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2151000</v>
       </c>
-      <c r="L94" s="3" t="s">
+      <c r="M94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2419000</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3527,44 +3759,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-708000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1239800</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1138600</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-804300</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-558300</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-829300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-680500</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-623800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-283100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-809500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-217400</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3598,9 +3834,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3634,9 +3873,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3670,115 +3912,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-882900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1808500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>83400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>71100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-393800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-823500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-196500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-520500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>273800</v>
       </c>
-      <c r="L100" s="3" t="s">
+      <c r="M100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>946100</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-52400</v>
+      </c>
+      <c r="E101" s="3">
         <v>61600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-61500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>91600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-13700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-105800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-83700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-20800</v>
       </c>
-      <c r="L101" s="3" t="s">
+      <c r="M101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-53800</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-111300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-635500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>739200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1071200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>449000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>278800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-12500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>477700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-834300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>65900</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/PCAR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PCAR_YR_FIN.xlsx
@@ -2021,7 +2021,7 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>20984800</v>
+        <v>21192500</v>
       </c>
       <c r="E46" s="3">
         <v>19724300</v>
@@ -2099,7 +2099,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6623700</v>
+        <v>13210700</v>
       </c>
       <c r="E48" s="3">
         <v>6896000</v>
@@ -2255,7 +2255,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1693200</v>
+        <v>3423100</v>
       </c>
       <c r="E52" s="3">
         <v>1639700</v>
@@ -2333,7 +2333,7 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>29301700</v>
+        <v>29509400</v>
       </c>
       <c r="E54" s="3">
         <v>28260000</v>
@@ -2406,7 +2406,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2454100</v>
+        <v>6385000</v>
       </c>
       <c r="E57" s="3">
         <v>2074500</v>
@@ -2562,7 +2562,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10432300</v>
+        <v>10431800</v>
       </c>
       <c r="E61" s="3">
         <v>10853800</v>
@@ -2601,7 +2601,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2355500</v>
+        <v>4433500</v>
       </c>
       <c r="E62" s="3">
         <v>2798700</v>
@@ -2757,7 +2757,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17864300</v>
+        <v>17915400</v>
       </c>
       <c r="E66" s="3">
         <v>17870000</v>
@@ -2969,7 +2969,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11869200</v>
+        <v>12025800</v>
       </c>
       <c r="E72" s="3">
         <v>11005200</v>
@@ -3125,7 +3125,7 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>11437400</v>
+        <v>11594000</v>
       </c>
       <c r="E76" s="3">
         <v>10390000</v>

--- a/AAII_Financials/Yearly/PCAR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PCAR_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>PCAR</t>
   </si>
@@ -2138,25 +2138,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>110600</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
+        <v>118800</v>
       </c>
       <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>109100</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2255,13 +2255,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3423100</v>
+        <v>3312500</v>
       </c>
       <c r="E52" s="3">
-        <v>1639700</v>
+        <v>1520900</v>
       </c>
       <c r="F52" s="3">
-        <v>1520700</v>
+        <v>1411600</v>
       </c>
       <c r="G52" s="3">
         <v>1199000</v>

--- a/AAII_Financials/Yearly/PCAR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PCAR_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>PCAR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,179 +665,191 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>28819700</v>
+      </c>
+      <c r="E8" s="3">
         <v>23522300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>18728500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>25599700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>23495700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>19456400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>17032900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>19115100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>18997000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>17123800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>17050500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>16355200</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>19110100</v>
+        <v>23291000</v>
       </c>
       <c r="E9" s="3">
+        <v>19092400</v>
+      </c>
+      <c r="F9" s="3">
         <v>15076400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>20555100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>18925300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>15593400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>13517300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>15292800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>15486900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>13902000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>27975300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>13523100</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4412200</v>
+        <v>5528700</v>
       </c>
       <c r="E10" s="3">
+        <v>4429900</v>
+      </c>
+      <c r="F10" s="3">
         <v>3652100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5044600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4570400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3863000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3515600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3822300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3510100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3221800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-10924800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2832100</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -853,47 +865,51 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>341200</v>
+      </c>
+      <c r="E12" s="3">
         <v>324100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>273900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>326600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>306100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>264700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>247200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>239800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>215600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>251400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>279300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>288200</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -930,9 +946,12 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -951,11 +970,11 @@
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="3">
         <v>833000</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
@@ -969,48 +988,54 @@
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>560800</v>
+      </c>
+      <c r="E15" s="3">
         <v>969400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1008000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>798200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>728000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>727500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>635200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>583700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>588500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>571700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>517400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>346600</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1023,86 +1048,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>21080900</v>
+        <v>24924800</v>
       </c>
       <c r="E17" s="3">
+        <v>21063200</v>
+      </c>
+      <c r="F17" s="3">
         <v>16968500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>22393700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>20618900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>17162400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>15789500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>16672500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>16862600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>15297500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>15296900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>14875800</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2441400</v>
+        <v>3894900</v>
       </c>
       <c r="E18" s="3">
+        <v>2459100</v>
+      </c>
+      <c r="F18" s="3">
         <v>1760000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3206000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2876800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2294000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1243400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2442600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2134400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1826300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1753600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1479400</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1118,203 +1150,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>170100</v>
+      </c>
+      <c r="E20" s="3">
         <v>88100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>90000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>133800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>135200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-20100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>42500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>20100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>12700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>35700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>33100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>27500</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3432800</v>
+        <v>4855200</v>
       </c>
       <c r="E21" s="3">
+        <v>3450500</v>
+      </c>
+      <c r="F21" s="3">
         <v>2899000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4417100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4066100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3381400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2279000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3369800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3064800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2672700</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2180700</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>216300</v>
+      </c>
+      <c r="E22" s="3">
         <v>150900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>192100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>240600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>201800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>100600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>155500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>125600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>129500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>167000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>157800</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2378600</v>
+        <v>3848700</v>
       </c>
       <c r="E23" s="3">
+        <v>2396300</v>
+      </c>
+      <c r="F23" s="3">
         <v>1657900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3099200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2810200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2173300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1130400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2337100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2017600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1695000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1628900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1506900</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>526500</v>
+        <v>837100</v>
       </c>
       <c r="E24" s="3">
+        <v>530800</v>
+      </c>
+      <c r="F24" s="3">
         <v>359500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>711300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>615100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>671500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>608700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>733100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>658800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>523700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>517300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>464600</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1351,87 +1399,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1852100</v>
+        <v>3011600</v>
       </c>
       <c r="E26" s="3">
+        <v>1865500</v>
+      </c>
+      <c r="F26" s="3">
         <v>1298400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2387900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2195100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1501800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>521700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1604000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1358800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1171300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1111600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1042300</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1852100</v>
+        <v>3011600</v>
       </c>
       <c r="E27" s="3">
+        <v>1865500</v>
+      </c>
+      <c r="F27" s="3">
         <v>1298400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2387900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2195100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1501800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>521700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1604000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1358800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1171300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1111600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1042300</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1468,9 +1525,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1486,11 +1546,11 @@
       <c r="G29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="3">
         <v>173400</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>10</v>
@@ -1507,9 +1567,12 @@
       <c r="N29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1546,9 +1609,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1585,87 +1651,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-170100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-88100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-90000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-133800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-135200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>20100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-42500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-20100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-12700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-35700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-33100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-27500</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1852100</v>
+        <v>3011600</v>
       </c>
       <c r="E33" s="3">
+        <v>1865500</v>
+      </c>
+      <c r="F33" s="3">
         <v>1298400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2387900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2195100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1675200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>521700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1604000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1358800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1171300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1111600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1042300</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1702,92 +1777,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1852100</v>
+        <v>3011600</v>
       </c>
       <c r="E35" s="3">
+        <v>1865500</v>
+      </c>
+      <c r="F35" s="3">
         <v>1298400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2387900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2195100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1675200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>521700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1604000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1358800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1171300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1111600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1042300</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1803,8 +1887,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1820,242 +1905,261 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4690900</v>
+      </c>
+      <c r="E41" s="3">
         <v>3428300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3539600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4175100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3435900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2364700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1915700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2016400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1737600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1750100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1272400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2106700</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1614200</v>
+      </c>
+      <c r="E42" s="3">
         <v>1559400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1429000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1162100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1020400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1367100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1140900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1448100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1272000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1267500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1192700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>910100</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>15711700</v>
+      </c>
+      <c r="E43" s="3">
         <v>13495900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>13018200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>13392100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>12155200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>10825000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>9699600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>10182600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>10089700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>9831700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>9200400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8237500</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2198800</v>
+      </c>
+      <c r="E44" s="3">
         <v>1768300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1221900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1153200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1184700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>928400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>727800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>796500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>925700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>813600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>782400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>710400</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>682000</v>
+      </c>
+      <c r="E45" s="3">
         <v>732900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>515600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>388000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>364700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>404400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>225600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>245700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>290500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>308100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>331700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>249100</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>24897600</v>
+      </c>
+      <c r="E46" s="3">
         <v>21192500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>19724300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>20270500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>18160900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>15889600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>13709600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>14689300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>14315500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>13971000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>12779600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>12213800</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2092,62 +2196,68 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6317300</v>
+      </c>
+      <c r="E48" s="3">
         <v>13210700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6896000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6569900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6122500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6606400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5897800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5549400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5553800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5841700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5201600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4363100</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>104100</v>
+      </c>
+      <c r="E49" s="3">
         <v>110600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>118800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>109100</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>10</v>
@@ -2158,8 +2268,8 @@
       <c r="J49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -2170,9 +2280,12 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2209,9 +2322,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2248,48 +2364,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1956500</v>
+      </c>
+      <c r="E52" s="3">
         <v>3312500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1520900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1411600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1199000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>944200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1031500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>871100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>749500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>912800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>646600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>595800</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2326,48 +2448,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>33275500</v>
+      </c>
+      <c r="E54" s="3">
         <v>29509400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>28260000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>28361100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>25482400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>23440200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>20638900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>21109800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>20618800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>20725500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>18627800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17172700</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2383,8 +2511,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2400,61 +2529,65 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2491900</v>
+      </c>
+      <c r="E57" s="3">
         <v>6385000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2074500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1720500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1823900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1620900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1331400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1286100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1552100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1366700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1147500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1462300</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>800</v>
+      </c>
+      <c r="E58" s="3">
         <v>400</v>
-      </c>
-      <c r="E58" s="3">
-        <v>500</v>
       </c>
       <c r="F58" s="3">
         <v>500</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>10</v>
+      <c r="G58" s="3">
+        <v>500</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>10</v>
@@ -2468,174 +2601,189 @@
       <c r="K58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M58" s="3">
         <v>150000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3562700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3909900</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3820400</v>
+      </c>
+      <c r="E59" s="3">
         <v>2622000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2142500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2898700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2422100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1836900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1308100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1635100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1484000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1498800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1330300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1528800</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6313100</v>
+      </c>
+      <c r="E60" s="3">
         <v>5076500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4217500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4619700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4246000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3457800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2639500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2921200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3036100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3015500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6040500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6901000</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>11473400</v>
+      </c>
+      <c r="E61" s="3">
         <v>10431800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>10853800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>11223200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>9950500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8879400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>8475200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>8591500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8230600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8274200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4317400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2745500</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2321900</v>
+      </c>
+      <c r="E62" s="3">
         <v>4433500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2798700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2812100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2693000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3052500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2746600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2656700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2598900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2801500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2423000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2161800</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2672,9 +2820,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2711,9 +2862,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2750,48 +2904,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>20108400</v>
+      </c>
+      <c r="E66" s="3">
         <v>17915400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>17870000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>18655000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>16889500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>15389700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>13861300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>14169400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13865600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>14091200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12780900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11808300</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2807,8 +2967,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2845,9 +3006,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2884,9 +3048,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2923,9 +3090,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2962,48 +3132,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>13402400</v>
+      </c>
+      <c r="E72" s="3">
         <v>12025800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>11005200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>10398500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>9275400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>8369100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>7484900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>7536800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6863800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6165100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5596400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5174500</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3040,9 +3216,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3079,9 +3258,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3118,48 +3300,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>13167100</v>
+      </c>
+      <c r="E76" s="3">
         <v>11594000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>10390000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>9706100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8592900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8050500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6777600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6940400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6753200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6634300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5846900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5364400</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3196,92 +3384,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1852100</v>
+        <v>3011600</v>
       </c>
       <c r="E81" s="3">
+        <v>1865500</v>
+      </c>
+      <c r="F81" s="3">
         <v>1298400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2387900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2195100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1675200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>521700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1604000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1358800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1171300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1111600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1042300</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3297,47 +3494,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>790200</v>
+      </c>
+      <c r="E83" s="3">
         <v>903300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1049000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1077300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1054100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1107500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>993100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>907100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>917700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>810700</v>
       </c>
-      <c r="M83" s="3" t="s">
+      <c r="N83" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>673800</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3374,9 +3575,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3413,9 +3617,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3452,9 +3659,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3491,9 +3701,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3530,48 +3743,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3027000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2186700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2987200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2860300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2992300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2715800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2300800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2556000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2123600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2375700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1519000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1592600</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3587,47 +3806,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1390500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1632800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1638400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1970800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1952300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1846600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1964900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1725200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1537300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1872800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1803400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1647300</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3664,9 +3887,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3703,48 +3929,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2033000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1362700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1875800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2207400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1930700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1964600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1564300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1974900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1531900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2151000</v>
       </c>
-      <c r="M94" s="3" t="s">
+      <c r="N94" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2419000</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3760,47 +3992,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1004700</v>
+      </c>
+      <c r="E96" s="3">
         <v>-708000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-1239800</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-1138600</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-804300</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-558300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-829300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-680500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-623800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-283100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-809500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-217400</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3837,9 +4073,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3876,9 +4115,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3915,124 +4157,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>304900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-882900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1808500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>83400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>71100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-393800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-823500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-196500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-520500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>273800</v>
       </c>
-      <c r="M100" s="3" t="s">
+      <c r="N100" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>946100</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-36300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-52400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>61600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>2900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-61500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>91600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-13700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-105800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-83700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-20800</v>
       </c>
-      <c r="M101" s="3" t="s">
+      <c r="N101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-53800</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1262600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-111300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-635500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>739200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1071200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>449000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>278800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-12500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>477700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-834300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>65900</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/PCAR_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PCAR_YR_FIN.xlsx
@@ -1954,25 +1954,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1614200</v>
+        <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>1559400</v>
+        <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>1429000</v>
+        <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>1162100</v>
+        <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>1020400</v>
+        <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>1367100</v>
+        <v>0</v>
       </c>
       <c r="J42" s="3">
-        <v>1140900</v>
+        <v>0</v>
       </c>
       <c r="K42" s="3">
         <v>1448100</v>
@@ -1996,25 +1996,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>15711700</v>
+        <v>1919800</v>
       </c>
       <c r="E43" s="3">
-        <v>13495900</v>
+        <v>1575100</v>
       </c>
       <c r="F43" s="3">
-        <v>13018200</v>
+        <v>1197500</v>
       </c>
       <c r="G43" s="3">
-        <v>13392100</v>
+        <v>1306100</v>
       </c>
       <c r="H43" s="3">
-        <v>12155200</v>
+        <v>1314400</v>
       </c>
       <c r="I43" s="3">
-        <v>10825000</v>
+        <v>1127900</v>
       </c>
       <c r="J43" s="3">
-        <v>9699600</v>
+        <v>862200</v>
       </c>
       <c r="K43" s="3">
         <v>10182600</v>
@@ -2080,25 +2080,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>682000</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>732900</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>515600</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>388000</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>364700</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>404400</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>225600</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>245700</v>
@@ -2122,25 +2122,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>24897600</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
-        <v>21192500</v>
+        <v>0</v>
       </c>
       <c r="F46" s="3">
-        <v>19724300</v>
+        <v>0</v>
       </c>
       <c r="G46" s="3">
-        <v>20270500</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3">
-        <v>18160900</v>
+        <v>0</v>
       </c>
       <c r="I46" s="3">
-        <v>15889600</v>
+        <v>0</v>
       </c>
       <c r="J46" s="3">
-        <v>13709600</v>
+        <v>0</v>
       </c>
       <c r="K46" s="3">
         <v>14689300</v>
@@ -2164,25 +2164,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>15406100</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
+        <v>13480200</v>
       </c>
       <c r="F47" s="3">
-        <v>0</v>
+        <v>13249700</v>
       </c>
       <c r="G47" s="3">
-        <v>0</v>
+        <v>13248100</v>
       </c>
       <c r="H47" s="3">
-        <v>0</v>
+        <v>11861200</v>
       </c>
       <c r="I47" s="3">
-        <v>0</v>
+        <v>11064200</v>
       </c>
       <c r="J47" s="3">
-        <v>0</v>
+        <v>9978300</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2374,25 +2374,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1956500</v>
+        <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>3312500</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
-        <v>1520900</v>
+        <v>0</v>
       </c>
       <c r="G52" s="3">
-        <v>1411600</v>
+        <v>0</v>
       </c>
       <c r="H52" s="3">
-        <v>1199000</v>
+        <v>0</v>
       </c>
       <c r="I52" s="3">
-        <v>944200</v>
+        <v>0</v>
       </c>
       <c r="J52" s="3">
-        <v>1031500</v>
+        <v>0</v>
       </c>
       <c r="K52" s="3">
         <v>871100</v>
@@ -2578,16 +2578,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>800</v>
+        <v>3362100</v>
       </c>
       <c r="E58" s="3">
-        <v>400</v>
+        <v>3103200</v>
       </c>
       <c r="F58" s="3">
-        <v>500</v>
+        <v>3154100</v>
       </c>
       <c r="G58" s="3">
-        <v>500</v>
+        <v>3911800</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>10</v>
@@ -2620,25 +2620,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3820400</v>
+        <v>3850600</v>
       </c>
       <c r="E59" s="3">
-        <v>2622000</v>
+        <v>2643800</v>
       </c>
       <c r="F59" s="3">
-        <v>2142500</v>
+        <v>2169400</v>
       </c>
       <c r="G59" s="3">
-        <v>2898700</v>
+        <v>2910900</v>
       </c>
       <c r="H59" s="3">
-        <v>2422100</v>
+        <v>2417000</v>
       </c>
       <c r="I59" s="3">
-        <v>1836900</v>
+        <v>1834400</v>
       </c>
       <c r="J59" s="3">
-        <v>1308100</v>
+        <v>1305900</v>
       </c>
       <c r="K59" s="3">
         <v>1635100</v>
@@ -2662,25 +2662,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6313100</v>
+        <v>0</v>
       </c>
       <c r="E60" s="3">
-        <v>5076500</v>
+        <v>0</v>
       </c>
       <c r="F60" s="3">
-        <v>4217500</v>
+        <v>0</v>
       </c>
       <c r="G60" s="3">
-        <v>4619700</v>
+        <v>0</v>
       </c>
       <c r="H60" s="3">
-        <v>4246000</v>
+        <v>0</v>
       </c>
       <c r="I60" s="3">
-        <v>3457800</v>
+        <v>0</v>
       </c>
       <c r="J60" s="3">
-        <v>2639500</v>
+        <v>0</v>
       </c>
       <c r="K60" s="3">
         <v>2921200</v>
@@ -2704,16 +2704,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11473400</v>
+        <v>8112100</v>
       </c>
       <c r="E61" s="3">
         <v>10431800</v>
       </c>
       <c r="F61" s="3">
-        <v>10853800</v>
+        <v>7700200</v>
       </c>
       <c r="G61" s="3">
-        <v>11223200</v>
+        <v>7311900</v>
       </c>
       <c r="H61" s="3">
         <v>9950500</v>
@@ -2746,25 +2746,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2321900</v>
+        <v>620000</v>
       </c>
       <c r="E62" s="3">
-        <v>4433500</v>
+        <v>1176600</v>
       </c>
       <c r="F62" s="3">
-        <v>2798700</v>
+        <v>848000</v>
       </c>
       <c r="G62" s="3">
-        <v>2812100</v>
+        <v>753200</v>
       </c>
       <c r="H62" s="3">
-        <v>2693000</v>
+        <v>685400</v>
       </c>
       <c r="I62" s="3">
-        <v>3052500</v>
+        <v>675400</v>
       </c>
       <c r="J62" s="3">
-        <v>2746600</v>
+        <v>888500</v>
       </c>
       <c r="K62" s="3">
         <v>2656700</v>
